--- a/app/excel_emplenat.xlsx
+++ b/app/excel_emplenat.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Grups</t>
   </si>
@@ -50,7 +50,10 @@
     <t>tfg T</t>
   </si>
   <si>
-    <t>MDL</t>
+    <t>XB</t>
+  </si>
+  <si>
+    <t>JMME</t>
   </si>
   <si>
     <t>PADS/assign(1grup)</t>
@@ -2248,18 +2251,26 @@
       <c r="BA6" s="9"/>
     </row>
     <row r="7" spans="1:1025">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5" t="str">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5">
         <f>IF(A7="","",SUM(D7:BA7))</f>
-        <v/>
-      </c>
-      <c r="C7" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
         <f>IF(A7="","",SUMPRODUCT(D7:BA7,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -4340,7 +4351,7 @@
     </row>
     <row r="83" spans="1:1025" hidden="true">
       <c r="A83" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D83" s="1">
         <f>IF(D5="","",D4/D2)</f>
@@ -6448,16 +6459,20 @@
       <c r="BA6" s="9"/>
     </row>
     <row r="7" spans="1:1025">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5" t="str">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5">
         <f>IF(A7="","",SUM(D7:BA7))</f>
-        <v/>
-      </c>
-      <c r="C7" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
         <f>IF(A7="","",SUMPRODUCT(D7:BA7,D84:BA84))</f>
-        <v/>
-      </c>
-      <c r="D7" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -8540,7 +8555,7 @@
     </row>
     <row r="83" spans="1:1025" hidden="true">
       <c r="A83" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D83" s="1">
         <f>IF(D5="","",D4/D2)</f>
@@ -10648,16 +10663,20 @@
       <c r="BA6" s="9"/>
     </row>
     <row r="7" spans="1:1025">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5" t="str">
+      <c r="A7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5">
         <f>IF(A7="","",SUM(D7:BA7))</f>
-        <v/>
-      </c>
-      <c r="C7" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
         <f>IF(A7="","",SUMPRODUCT(D7:BA7,D84:BA84))</f>
-        <v/>
-      </c>
-      <c r="D7" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.0</v>
+      </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -12740,7 +12759,7 @@
     </row>
     <row r="83" spans="1:1025" hidden="true">
       <c r="A83" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D83" s="1">
         <f>IF(D5="","",D4/D2)</f>
@@ -13157,16 +13176,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>0</v>
@@ -13174,16 +13193,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -13191,16 +13210,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -13208,16 +13227,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>1</v>

--- a/app/excel_emplenat.xlsx
+++ b/app/excel_emplenat.xlsx
@@ -50,7 +50,7 @@
     <t>tfg T</t>
   </si>
   <si>
-    <t>XB</t>
+    <t>LB</t>
   </si>
   <si>
     <t>JMME</t>

--- a/app/excel_emplenat.xlsx
+++ b/app/excel_emplenat.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>Grups</t>
   </si>
@@ -41,19 +41,40 @@
     <t>PADs Prof.</t>
   </si>
   <si>
-    <t>electrònica P</t>
+    <t>Ampliació electrònica P</t>
   </si>
   <si>
-    <t>taller elèctric T</t>
+    <t>Ampliació electrònica T</t>
   </si>
   <si>
-    <t>tfg T</t>
+    <t>Electrònica P</t>
+  </si>
+  <si>
+    <t>Microcomputadors T</t>
+  </si>
+  <si>
+    <t>Sistemes d'instrum. Electrònica T</t>
+  </si>
+  <si>
+    <t>Taller elèctric T</t>
+  </si>
+  <si>
+    <t>Tfg T</t>
   </si>
   <si>
     <t>LB</t>
   </si>
   <si>
     <t>JMME</t>
+  </si>
+  <si>
+    <t>JAC</t>
+  </si>
+  <si>
+    <t>JBF</t>
+  </si>
+  <si>
+    <t>RRM</t>
   </si>
   <si>
     <t>PADS/assign(1grup)</t>
@@ -71,7 +92,7 @@
     <t>Crèdits</t>
   </si>
   <si>
-    <t>electrònica</t>
+    <t>Ampliació electrònica</t>
   </si>
   <si>
     <t>pràctica</t>
@@ -80,13 +101,25 @@
     <t>Q1</t>
   </si>
   <si>
-    <t>taller elèctric</t>
-  </si>
-  <si>
     <t>teoria</t>
   </si>
   <si>
+    <t>Electrònica</t>
+  </si>
+  <si>
+    <t>Microcomputadors</t>
+  </si>
+  <si>
     <t>Q2</t>
+  </si>
+  <si>
+    <t>Sistemes d'instrum. Electrònica</t>
+  </si>
+  <si>
+    <t>Taller elèctric</t>
+  </si>
+  <si>
+    <t>Tfg</t>
   </si>
   <si>
     <t>tfg</t>
@@ -1583,25 +1616,25 @@
         <f>IF(F5="","",SUM(F6:F81))</f>
         <v>0</v>
       </c>
-      <c r="G1" s="5" t="str">
+      <c r="G1" s="5">
         <f>IF(G5="","",SUM(G6:G81))</f>
-        <v/>
-      </c>
-      <c r="H1" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="H1" s="5">
         <f>IF(H5="","",SUM(H6:H81))</f>
-        <v/>
-      </c>
-      <c r="I1" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="I1" s="5">
         <f>IF(I5="","",SUM(I6:I81))</f>
-        <v/>
-      </c>
-      <c r="J1" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="J1" s="5">
         <f>IF(J5="","",SUM(J6:J81))</f>
-        <v/>
-      </c>
-      <c r="K1" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="K1" s="5">
         <f>IF(K5="","",SUM(K6:K81))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L1" s="5" t="str">
         <f>IF(L5="","",SUM(L6:L81))</f>
@@ -1778,23 +1811,33 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(D2:AMJ2)</f>
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E2" s="5">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F2" s="5">
         <v>1.0</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="G2" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1.0</v>
+      </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -1859,25 +1902,25 @@
         <f>IFERROR(F4/F2*F1,"")</f>
         <v>0</v>
       </c>
-      <c r="G3" s="5" t="str">
+      <c r="G3" s="5">
         <f>IFERROR(G4/G2*G1,"")</f>
-        <v/>
-      </c>
-      <c r="H3" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
         <f>IFERROR(H4/H2*H1,"")</f>
-        <v/>
-      </c>
-      <c r="I3" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
         <f>IFERROR(I4/I2*I1,"")</f>
-        <v/>
-      </c>
-      <c r="J3" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
         <f>IFERROR(J4/J2*J1,"")</f>
-        <v/>
-      </c>
-      <c r="K3" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
         <f>IFERROR(K4/K2*K1,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="L3" s="5" t="str">
         <f>IFERROR(L4/L2*L1,"")</f>
@@ -2055,22 +2098,32 @@
       <c r="B4" s="4"/>
       <c r="C4" s="3">
         <f>SUM(D4:BA4)</f>
-        <v>51</v>
+        <v>246</v>
       </c>
       <c r="D4" s="5">
+        <v>54.0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>72.0</v>
+      </c>
+      <c r="F4" s="5">
         <v>9.0</v>
       </c>
-      <c r="E4" s="5">
+      <c r="G4" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>36.0</v>
+      </c>
+      <c r="I4" s="5">
         <v>24.0</v>
       </c>
-      <c r="F4" s="5">
+      <c r="J4" s="5">
+        <v>24.0</v>
+      </c>
+      <c r="K4" s="5">
         <v>18.0</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -2133,11 +2186,21 @@
       <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -2183,7 +2246,7 @@
     </row>
     <row r="6" spans="1:1025">
       <c r="A6" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5">
         <f>IF(A6="","",SUM(D6:BA6))</f>
@@ -2202,11 +2265,21 @@
       <c r="F6" s="9">
         <v>0.0</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="G6" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0.0</v>
+      </c>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
@@ -2252,7 +2325,7 @@
     </row>
     <row r="7" spans="1:1025">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7" s="5">
         <f>IF(A7="","",SUM(D7:BA7))</f>
@@ -2271,11 +2344,21 @@
       <c r="F7" s="9">
         <v>0.0</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="G7" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0.0</v>
+      </c>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
@@ -2290,23 +2373,41 @@
       <c r="W7" s="9"/>
     </row>
     <row r="8" spans="1:1025">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5" t="str">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5">
         <f>IF(A8="","",SUM(D8:BA8))</f>
-        <v/>
-      </c>
-      <c r="C8" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
         <f>IF(A8="","",SUMPRODUCT(D8:BA8,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0.0</v>
+      </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
@@ -2321,23 +2422,41 @@
       <c r="W8" s="9"/>
     </row>
     <row r="9" spans="1:1025">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="str">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5">
         <f>IF(A9="","",SUM(D9:BA9))</f>
-        <v/>
-      </c>
-      <c r="C9" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8">
         <f>IF(A9="","",SUMPRODUCT(D9:BA9,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0.0</v>
+      </c>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -2352,23 +2471,41 @@
       <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:1025">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="str">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5">
         <f>IF(A10="","",SUM(D10:BA10))</f>
-        <v/>
-      </c>
-      <c r="C10" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8">
         <f>IF(A10="","",SUMPRODUCT(D10:BA10,$D$83:$BA$83))</f>
-        <v/>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="K10" s="9">
+        <v>0.0</v>
+      </c>
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
@@ -4351,7 +4488,7 @@
     </row>
     <row r="83" spans="1:1025" hidden="true">
       <c r="A83" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D83" s="1">
         <f>IF(D5="","",D4/D2)</f>
@@ -4359,31 +4496,31 @@
       </c>
       <c r="E83" s="1">
         <f>IF(E5="","",E4/E2)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F83" s="1">
         <f>IF(F5="","",F4/F2)</f>
+        <v>9</v>
+      </c>
+      <c r="G83" s="1">
+        <f>IF(G5="","",G4/G2)</f>
+        <v>9</v>
+      </c>
+      <c r="H83" s="1">
+        <f>IF(H5="","",H4/H2)</f>
+        <v>12</v>
+      </c>
+      <c r="I83" s="1">
+        <f>IF(I5="","",I4/I2)</f>
+        <v>12</v>
+      </c>
+      <c r="J83" s="1">
+        <f>IF(J5="","",J4/J2)</f>
+        <v>12</v>
+      </c>
+      <c r="K83" s="1">
+        <f>IF(K5="","",K4/K2)</f>
         <v>18</v>
-      </c>
-      <c r="G83" s="1" t="str">
-        <f>IF(G5="","",G4/G2)</f>
-        <v/>
-      </c>
-      <c r="H83" s="1" t="str">
-        <f>IF(H5="","",H4/H2)</f>
-        <v/>
-      </c>
-      <c r="I83" s="1" t="str">
-        <f>IF(I5="","",I4/I2)</f>
-        <v/>
-      </c>
-      <c r="J83" s="1" t="str">
-        <f>IF(J5="","",J4/J2)</f>
-        <v/>
-      </c>
-      <c r="K83" s="1" t="str">
-        <f>IF(K5="","",K4/K2)</f>
-        <v/>
       </c>
       <c r="L83" s="1" t="str">
         <f>IF(L5="","",L4/L2)</f>
@@ -5799,17 +5936,17 @@
         <f>IF(D5="","",SUM(D6:D81))</f>
         <v>0</v>
       </c>
-      <c r="E1" s="5" t="str">
+      <c r="E1" s="5">
         <f>IF(E5="","",SUM(E6:E81))</f>
-        <v/>
-      </c>
-      <c r="F1" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="F1" s="5">
         <f>IF(F5="","",SUM(F6:F81))</f>
-        <v/>
-      </c>
-      <c r="G1" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="G1" s="5">
         <f>IF(G5="","",SUM(G6:G81))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H1" s="5" t="str">
         <f>IF(H5="","",SUM(H6:H81))</f>
@@ -6002,15 +6139,21 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(D2:AMJ2)</f>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="F2" s="5">
         <v>1.0</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="G2" s="5">
+        <v>2.0</v>
+      </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -6071,17 +6214,17 @@
         <f>IFERROR(D4/D2*D1,"")</f>
         <v>0</v>
       </c>
-      <c r="E3" s="5" t="str">
+      <c r="E3" s="5">
         <f>IFERROR(E4/E2*E1,"")</f>
-        <v/>
-      </c>
-      <c r="F3" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
         <f>IFERROR(F4/F2*F1,"")</f>
-        <v/>
-      </c>
-      <c r="G3" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
         <f>IFERROR(G4/G2*G1,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H3" s="5" t="str">
         <f>IFERROR(H4/H2*H1,"")</f>
@@ -6275,14 +6418,20 @@
       <c r="B4" s="4"/>
       <c r="C4" s="3">
         <f>SUM(D4:BA4)</f>
-        <v>9</v>
+        <v>159</v>
       </c>
       <c r="D4" s="5">
+        <v>54.0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>72.0</v>
+      </c>
+      <c r="F4" s="5">
         <v>9.0</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="5">
+        <v>24.0</v>
+      </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -6343,9 +6492,15 @@
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -6395,7 +6550,7 @@
     </row>
     <row r="6" spans="1:1025">
       <c r="A6" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5">
         <f>IF(A6="","",SUM(D6:BA6))</f>
@@ -6408,9 +6563,15 @@
       <c r="D6" s="9">
         <v>0.0</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="E6" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.0</v>
+      </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -6460,7 +6621,7 @@
     </row>
     <row r="7" spans="1:1025">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7" s="5">
         <f>IF(A7="","",SUM(D7:BA7))</f>
@@ -6473,9 +6634,15 @@
       <c r="D7" s="9">
         <v>0.0</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+      <c r="E7" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.0</v>
+      </c>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -6494,19 +6661,29 @@
       <c r="W7" s="9"/>
     </row>
     <row r="8" spans="1:1025">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5" t="str">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5">
         <f>IF(A8="","",SUM(D8:BA8))</f>
-        <v/>
-      </c>
-      <c r="C8" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
         <f>IF(A8="","",SUMPRODUCT(D8:BA8,D85:BA85))</f>
-        <v/>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.0</v>
+      </c>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -6525,19 +6702,29 @@
       <c r="W8" s="9"/>
     </row>
     <row r="9" spans="1:1025">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="str">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5">
         <f>IF(A9="","",SUM(D9:BA9))</f>
-        <v/>
-      </c>
-      <c r="C9" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8">
         <f>IF(A9="","",SUMPRODUCT(D9:BA9,D86:BA86))</f>
-        <v/>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.0</v>
+      </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -6556,19 +6743,29 @@
       <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:1025">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="str">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5">
         <f>IF(A10="","",SUM(D10:BA10))</f>
-        <v/>
-      </c>
-      <c r="C10" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8">
         <f>IF(A10="","",SUMPRODUCT(D10:BA10,D87:BA87))</f>
-        <v/>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.0</v>
+      </c>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -8555,23 +8752,23 @@
     </row>
     <row r="83" spans="1:1025" hidden="true">
       <c r="A83" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D83" s="1">
         <f>IF(D5="","",D4/D2)</f>
         <v>9</v>
       </c>
-      <c r="E83" s="1" t="str">
+      <c r="E83" s="1">
         <f>IF(E5="","",E4/E2)</f>
-        <v/>
-      </c>
-      <c r="F83" s="1" t="str">
+        <v>18</v>
+      </c>
+      <c r="F83" s="1">
         <f>IF(F5="","",F4/F2)</f>
-        <v/>
-      </c>
-      <c r="G83" s="1" t="str">
+        <v>9</v>
+      </c>
+      <c r="G83" s="1">
         <f>IF(G5="","",G4/G2)</f>
-        <v/>
+        <v>12</v>
       </c>
       <c r="H83" s="1" t="str">
         <f>IF(H5="","",H4/H2)</f>
@@ -10003,13 +10200,13 @@
         <f>IF(D5="","",SUM(D6:D81))</f>
         <v>0</v>
       </c>
-      <c r="E1" s="5" t="str">
+      <c r="E1" s="5">
         <f>IF(E5="","",SUM(E6:E81))</f>
-        <v/>
-      </c>
-      <c r="F1" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="F1" s="5">
         <f>IF(F5="","",SUM(F6:F81))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="G1" s="5" t="str">
         <f>IF(G5="","",SUM(G6:G81))</f>
@@ -10206,14 +10403,18 @@
       </c>
       <c r="B2" s="3">
         <f>SUM(D2:AMJ2)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="F2" s="5">
         <v>2.0</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -10275,13 +10476,13 @@
         <f>IFERROR(D4/D2*D1,"")</f>
         <v>0</v>
       </c>
-      <c r="E3" s="5" t="str">
+      <c r="E3" s="5">
         <f>IFERROR(E4/E2*E1,"")</f>
-        <v/>
-      </c>
-      <c r="F3" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
         <f>IFERROR(F4/F2*F1,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="G3" s="5" t="str">
         <f>IFERROR(G4/G2*G1,"")</f>
@@ -10479,13 +10680,17 @@
       <c r="B4" s="4"/>
       <c r="C4" s="3">
         <f>SUM(D4:BA4)</f>
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="D4" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>36.0</v>
+      </c>
+      <c r="F4" s="5">
         <v>24.0</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -10545,10 +10750,14 @@
         <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -10599,7 +10808,7 @@
     </row>
     <row r="6" spans="1:1025">
       <c r="A6" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5">
         <f>IF(A6="","",SUM(D6:BA6))</f>
@@ -10612,8 +10821,12 @@
       <c r="D6" s="9">
         <v>0.0</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="E6" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -10664,7 +10877,7 @@
     </row>
     <row r="7" spans="1:1025">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7" s="5">
         <f>IF(A7="","",SUM(D7:BA7))</f>
@@ -10677,8 +10890,12 @@
       <c r="D7" s="9">
         <v>0.0</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="E7" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -10698,18 +10915,26 @@
       <c r="W7" s="9"/>
     </row>
     <row r="8" spans="1:1025">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5" t="str">
+      <c r="A8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5">
         <f>IF(A8="","",SUM(D8:BA8))</f>
-        <v/>
-      </c>
-      <c r="C8" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
         <f>IF(A8="","",SUMPRODUCT(D8:BA8,D85:BA85))</f>
-        <v/>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
@@ -10729,18 +10954,26 @@
       <c r="W8" s="9"/>
     </row>
     <row r="9" spans="1:1025">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="str">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5">
         <f>IF(A9="","",SUM(D9:BA9))</f>
-        <v/>
-      </c>
-      <c r="C9" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8">
         <f>IF(A9="","",SUMPRODUCT(D9:BA9,D86:BA86))</f>
-        <v/>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -10760,18 +10993,26 @@
       <c r="W9" s="9"/>
     </row>
     <row r="10" spans="1:1025">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="str">
+      <c r="A10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5">
         <f>IF(A10="","",SUM(D10:BA10))</f>
-        <v/>
-      </c>
-      <c r="C10" s="8" t="str">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8">
         <f>IF(A10="","",SUMPRODUCT(D10:BA10,D87:BA87))</f>
-        <v/>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.0</v>
+      </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -12759,19 +13000,19 @@
     </row>
     <row r="83" spans="1:1025" hidden="true">
       <c r="A83" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D83" s="1">
         <f>IF(D5="","",D4/D2)</f>
+        <v>9</v>
+      </c>
+      <c r="E83" s="1">
+        <f>IF(E5="","",E4/E2)</f>
         <v>12</v>
       </c>
-      <c r="E83" s="1" t="str">
-        <f>IF(E5="","",E4/E2)</f>
-        <v/>
-      </c>
-      <c r="F83" s="1" t="str">
+      <c r="F83" s="1">
         <f>IF(F5="","",F4/F2)</f>
-        <v/>
+        <v>12</v>
       </c>
       <c r="G83" s="1" t="str">
         <f>IF(G5="","",G4/G2)</f>
@@ -13159,7 +13400,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="B24" sqref="B24"/>
@@ -13176,16 +13417,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>0</v>
@@ -13193,52 +13434,137 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
         <v>4</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9">
         <v>6</v>
       </c>
-      <c r="E4">
+      <c r="E9">
         <v>1</v>
       </c>
     </row>
